--- a/Document/2.Design/Template/Thong_tin_chitiet_giao_dich.xlsx
+++ b/Document/2.Design/Template/Thong_tin_chitiet_giao_dich.xlsx
@@ -210,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,9 +224,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -239,16 +236,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -568,54 +571,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="37.875" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.75" customWidth="1"/>
-    <col min="10" max="10" width="21.125" customWidth="1"/>
-    <col min="11" max="11" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="13" customWidth="1"/>
+    <col min="6" max="6" width="37.875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="13" customWidth="1"/>
+    <col min="10" max="10" width="21.125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="17.75" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -656,49 +659,49 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="9"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -706,16 +709,16 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Document/2.Design/Template/Thong_tin_chitiet_giao_dich.xlsx
+++ b/Document/2.Design/Template/Thong_tin_chitiet_giao_dich.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WMS\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\X8 Store\6.Source\WMS\Document\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BD1EC3-5804-4E66-B42B-1DF44254C661}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,12 +39,6 @@
     <t>Loại GD</t>
   </si>
   <si>
-    <t>Ngày tạo</t>
-  </si>
-  <si>
-    <t>Người tạo</t>
-  </si>
-  <si>
     <t>&lt;jx:forEach items="${items}" var="item" varStatus="status"&gt;</t>
   </si>
   <si>
@@ -65,9 +60,6 @@
     <t>Đơn vị tính</t>
   </si>
   <si>
-    <t>Tình trạng</t>
-  </si>
-  <si>
     <t>${item.goodsCode}</t>
   </si>
   <si>
@@ -102,20 +94,29 @@
   </si>
   <si>
     <t>Danh sách hàng hóa trong các giao dịch từ ${startDate} - ${endDate}</t>
+  </si>
+  <si>
+    <t>Ngày thực hiện</t>
+  </si>
+  <si>
+    <t>Người thực hiện</t>
+  </si>
+  <si>
+    <t>Tình trạng hàng hóa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -123,7 +124,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -131,7 +132,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -139,14 +140,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -154,7 +155,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -168,7 +169,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,50 +209,50 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -568,157 +569,157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="13" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="13" customWidth="1"/>
-    <col min="6" max="6" width="37.875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="13" customWidth="1"/>
-    <col min="10" max="10" width="21.125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="17.75" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="37" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="H3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
+    <row r="5" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>5</v>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="8"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Document/2.Design/Template/Thong_tin_chitiet_giao_dich.xlsx
+++ b/Document/2.Design/Template/Thong_tin_chitiet_giao_dich.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\X8 Store\6.Source\WMS\Document\2.Design\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WMS\temp\file_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BD1EC3-5804-4E66-B42B-1DF44254C661}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C17C126-07EF-4C0B-81A4-4C82E3558A73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>STT</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>Tình trạng hàng hóa</t>
+  </si>
+  <si>
+    <t>Trọng lượng(Kg)</t>
+  </si>
+  <si>
+    <t>Thể tích(m3)</t>
+  </si>
+  <si>
+    <t>${item.weight}</t>
+  </si>
+  <si>
+    <t>${item.volume}</t>
   </si>
 </sst>
 </file>
@@ -211,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -246,13 +258,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -570,58 +585,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
     <col min="2" max="2" width="19.1796875" style="5" customWidth="1"/>
     <col min="3" max="3" width="20.90625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="37" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="30.7265625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" style="6" customWidth="1"/>
     <col min="9" max="9" width="9.7265625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="10.90625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -649,14 +670,20 @@
       <c r="I3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -668,10 +695,12 @@
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="4"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -693,20 +722,26 @@
       <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -718,13 +753,15 @@
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="4"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Document/2.Design/Template/Thong_tin_chitiet_giao_dich.xlsx
+++ b/Document/2.Design/Template/Thong_tin_chitiet_giao_dich.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WMS\temp\file_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C17C126-07EF-4C0B-81A4-4C82E3558A73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00903929-AA93-4157-BB20-10199A733F9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>STT</t>
   </si>
@@ -115,6 +115,30 @@
   </si>
   <si>
     <t>${item.volume}</t>
+  </si>
+  <si>
+    <t>Vị trí</t>
+  </si>
+  <si>
+    <t>Ngày sản xuất</t>
+  </si>
+  <si>
+    <t>Hạn sử dụng</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>${item.cellCode}</t>
+  </si>
+  <si>
+    <t>${item.produceDate}</t>
+  </si>
+  <si>
+    <t>${item.expireDate}</t>
+  </si>
+  <si>
+    <t>${item.description}</t>
   </si>
 </sst>
 </file>
@@ -186,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -218,12 +242,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -261,15 +296,22 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -585,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -596,53 +638,59 @@
     <col min="1" max="1" width="5.453125" customWidth="1"/>
     <col min="2" max="2" width="19.1796875" style="5" customWidth="1"/>
     <col min="3" max="3" width="20.90625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="30.7265625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="10.90625" style="5" customWidth="1"/>
+    <col min="4" max="6" width="9.7265625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="30.7265625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="10.6328125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:17" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="17"/>
     </row>
-    <row r="3" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -655,52 +703,68 @@
       <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>24</v>
+      <c r="N3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="4"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -713,35 +777,47 @@
       <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="L5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="M5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>16</v>
+      <c r="N5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -751,17 +827,21 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="4"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
